--- a/SGSST/SG-SST AÑO 2023/5_Capacitaciones/Cronograma de capacitacion 2023.xlsx
+++ b/SGSST/SG-SST AÑO 2023/5_Capacitaciones/Cronograma de capacitacion 2023.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\GitHub\Excavaciones-Corrrea-Mejia\SGSST\SG-SST AÑO 2023\Programa Capacitacion, Induccion Reinduc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dayana Git\Excavaciones-Corrrea-Mejia\SGSST\SG-SST AÑO 2023\5_Capacitaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1830AE-330C-4E68-9349-E3C6F23AA86B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma CAP 2023" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Cronograma CAP 2023'!$A$1:$J$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Cronograma CAP 2023'!$A$1:$J$21</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="72">
   <si>
     <t>SISTEMA DE GESTIÓN DE LA SEGURIDAD Y SALUD EN EL TRABAJO</t>
   </si>
@@ -225,13 +224,37 @@
   </si>
   <si>
     <t xml:space="preserve">Brindar a los integrantes del comité de convivencia estrategias de comunicación para que los mensajes lleguen de manera correcta. </t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Obligaciones y funciones del COPASST</t>
+  </si>
+  <si>
+    <t>Dar a conocer las obligaciones y funcionesle confieren a los integrantes del COPASST de acuerdo a la normatividad vigente.</t>
+  </si>
+  <si>
+    <t>Integrantes del COPASST</t>
+  </si>
+  <si>
+    <t>Investigacion de accidente de trabajo</t>
+  </si>
+  <si>
+    <t>Capacitar a los integrantes del copasst las metodologias existentes para las investigaciones de los AT</t>
+  </si>
+  <si>
+    <t>Identificacion de peligros y riesgos mediante inspecciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dar a conocer la herramienta de inspeccion para identificar de manera oportuna los peligros y riesgos que se presenta. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,7 +308,7 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="20"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -297,10 +320,19 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -492,7 +524,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -572,43 +604,64 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -618,6 +671,349 @@
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="32">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -672,360 +1068,6 @@
           <bgColor theme="9"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1521,33 +1563,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6B7BFF98-1574-4F9A-91A9-9027E6074E27}" name="Tabla13" displayName="Tabla13" ref="A4:K19" totalsRowCount="1" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
-  <autoFilter ref="A4:K18" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Integrantes del Comité de Convivencia"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla13" displayName="Tabla13" ref="A4:K22" totalsRowCount="1" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
+  <autoFilter ref="A4:K21"/>
   <sortState ref="A5:J18">
     <sortCondition ref="F4:F18"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{EB8A1E7B-2D4B-4A53-91F2-04F9B2AB2194}" name="MES" dataDxfId="26" totalsRowDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{A2A38868-C3D4-4288-8FCE-191E1DC9D6C4}" name="DÍA" dataDxfId="25" totalsRowDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{734197FA-6FFA-4ACA-8357-B2F4C6E99455}" name="AÑO" dataDxfId="24" totalsRowDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{1D94DAB2-25DC-43A2-8DB2-3B527A86A12D}" name="TEMA" dataDxfId="23" totalsRowDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{8E51E8C6-67C0-4149-BF9D-68D4D6F1E7AE}" name="OBJETIVO" dataDxfId="22" totalsRowDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{FC5A97B2-C131-4195-BF77-480D54850304}" name="PROFESIONAL" dataDxfId="21" totalsRowDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{0447BE5C-E111-4BBE-91CA-A7307C7EAC22}" name="ALCANCE" dataDxfId="20" totalsRowDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{BDAB7EF3-8F60-4398-85CB-7A967027AFBD}" name="RECURSOS" dataDxfId="19" totalsRowDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{98F7835C-E4FC-4888-B74E-18146E339028}" name="EJECUTADO" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="7" dataCellStyle="Porcentaje">
+    <tableColumn id="1" name="MES" dataDxfId="26" totalsRowDxfId="10"/>
+    <tableColumn id="2" name="DÍA" dataDxfId="25" totalsRowDxfId="9"/>
+    <tableColumn id="3" name="AÑO" dataDxfId="24" totalsRowDxfId="8"/>
+    <tableColumn id="4" name="TEMA" dataDxfId="23" totalsRowDxfId="7"/>
+    <tableColumn id="5" name="OBJETIVO" dataDxfId="22" totalsRowDxfId="6"/>
+    <tableColumn id="6" name="PROFESIONAL" dataDxfId="21" totalsRowDxfId="5"/>
+    <tableColumn id="12" name="ALCANCE" dataDxfId="20" totalsRowDxfId="4"/>
+    <tableColumn id="7" name="RECURSOS" dataDxfId="19" totalsRowDxfId="3"/>
+    <tableColumn id="8" name="EJECUTADO" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="2" dataCellStyle="Porcentaje">
       <totalsRowFormula>(COUNTIF(Tabla13[EJECUTADO],"Si")/13)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D56ACFD7-487F-497C-9D91-95BF5CADC210}" name="%CUMPLIMIENTO" dataDxfId="17" totalsRowDxfId="6" dataCellStyle="Notas">
+    <tableColumn id="9" name="%CUMPLIMIENTO" dataDxfId="17" totalsRowDxfId="1" dataCellStyle="Notas">
       <calculatedColumnFormula>IF(I5="Si",100%,0%)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{AF73EB11-AD55-4AC2-8322-BEAF92258BBD}" name="OBSERVACIONES" dataDxfId="16" totalsRowDxfId="5"/>
+    <tableColumn id="10" name="OBSERVACIONES" dataDxfId="16" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1849,14 +1885,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3DB9C72-6F8E-4E7B-A52F-161B85DB6435}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -2695,33 +2731,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34"/>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="38" t="s">
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
       <c r="J1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="39" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
       <c r="J2" s="3" t="s">
         <v>2</v>
       </c>
@@ -2773,7 +2809,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>18</v>
       </c>
@@ -2786,7 +2822,7 @@
       <c r="D5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="27" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="12" t="s">
@@ -2805,7 +2841,7 @@
       </c>
       <c r="K5" s="25"/>
     </row>
-    <row r="6" spans="1:11" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>19</v>
       </c>
@@ -2818,7 +2854,7 @@
       <c r="D6" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="27" t="s">
         <v>47</v>
       </c>
       <c r="F6" s="12" t="s">
@@ -2850,7 +2886,7 @@
       <c r="D7" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="27" t="s">
         <v>63</v>
       </c>
       <c r="F7" s="12" t="s">
@@ -2862,14 +2898,16 @@
       <c r="H7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="13"/>
+      <c r="I7" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="J7" s="19">
         <f t="shared" ref="J7" si="0">IF(I7="Si",100%,0%)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="25"/>
     </row>
-    <row r="8" spans="1:11" s="11" customFormat="1" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="11" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>35</v>
       </c>
@@ -2882,7 +2920,7 @@
       <c r="D8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="27" t="s">
         <v>44</v>
       </c>
       <c r="F8" s="12" t="s">
@@ -2901,85 +2939,89 @@
       </c>
       <c r="K8" s="25"/>
     </row>
-    <row r="9" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="11" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="21">
-        <v>24</v>
-      </c>
-      <c r="C9" s="21">
+        <v>35</v>
+      </c>
+      <c r="B9" s="36">
+        <v>27</v>
+      </c>
+      <c r="C9" s="36">
         <v>2023</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>37</v>
+      <c r="D9" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>66</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>38</v>
+        <v>50</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="24">
+        <v>17</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="40">
         <f>IF(I9="Si",100%,0%)</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="25"/>
+        <v>1</v>
+      </c>
+      <c r="K9" s="41"/>
     </row>
-    <row r="10" spans="1:11" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="21">
         <v>24</v>
       </c>
       <c r="C10" s="21">
         <v>2023</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>26</v>
+        <v>60</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>37</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>14</v>
+        <v>51</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="19">
-        <f t="shared" ref="J10:J18" si="2">IF(I10="Si",100%,0%)</f>
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="24">
+        <f>IF(I10="Si",100%,0%)</f>
+        <v>1</v>
       </c>
       <c r="K10" s="25"/>
     </row>
-    <row r="11" spans="1:11" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="13">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C11" s="21">
         <v>2023</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>58</v>
+      <c r="D11" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>26</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>50</v>
@@ -2988,254 +3030,350 @@
         <v>14</v>
       </c>
       <c r="H11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="19">
+        <f t="shared" ref="J11:J21" si="2">IF(I11="Si",100%,0%)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="25"/>
+    </row>
+    <row r="12" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="13">
+        <v>15</v>
+      </c>
+      <c r="C12" s="21">
+        <v>2023</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="18">
+      <c r="I12" s="13"/>
+      <c r="J12" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11" s="25"/>
-    </row>
-    <row r="12" spans="1:11" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="13">
-        <v>29</v>
-      </c>
-      <c r="C12" s="21">
-        <v>2023</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="18">
-        <f t="shared" ref="J12" si="3">IF(I12="Si",100%,0%)</f>
-        <v>0</v>
-      </c>
       <c r="K12" s="25"/>
     </row>
-    <row r="13" spans="1:11" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="13">
-        <v>26</v>
-      </c>
-      <c r="C13" s="21">
+        <v>12</v>
+      </c>
+      <c r="B13" s="36">
+        <v>27</v>
+      </c>
+      <c r="C13" s="36">
         <v>2023</v>
       </c>
-      <c r="D13" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>55</v>
+      <c r="D13" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="18">
-        <f t="shared" ref="J13" si="4">IF(I13="Si",100%,0%)</f>
+        <v>17</v>
+      </c>
+      <c r="I13" s="39"/>
+      <c r="J13" s="40">
+        <f>IF(I13="Si",100%,0%)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="25"/>
+      <c r="K13" s="41"/>
     </row>
-    <row r="14" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="21">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="B14" s="13">
+        <v>29</v>
       </c>
       <c r="C14" s="21">
         <v>2023</v>
       </c>
-      <c r="D14" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>30</v>
+      <c r="D14" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>31</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>38</v>
+        <v>50</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="24">
-        <f>IF(I14="Si",100%,0%)</f>
+        <v>28</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="18">
+        <f t="shared" ref="J14" si="3">IF(I14="Si",100%,0%)</f>
         <v>0</v>
       </c>
       <c r="K14" s="25"/>
     </row>
-    <row r="15" spans="1:11" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" s="13">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C15" s="21">
         <v>2023</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>42</v>
+      <c r="D15" s="22" t="s">
+        <v>53</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>50</v>
+        <v>54</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I15" s="13"/>
       <c r="J15" s="18">
+        <f t="shared" ref="J15" si="4">IF(I15="Si",100%,0%)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="25"/>
+    </row>
+    <row r="16" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="21">
+        <v>23</v>
+      </c>
+      <c r="C16" s="21">
+        <v>2023</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="23"/>
+      <c r="J16" s="24">
+        <f>IF(I16="Si",100%,0%)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="25"/>
+    </row>
+    <row r="17" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="13">
+        <v>16</v>
+      </c>
+      <c r="C17" s="21">
+        <v>2023</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="13"/>
+      <c r="J17" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K15" s="25"/>
+      <c r="K17" s="25"/>
     </row>
-    <row r="16" spans="1:11" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+    <row r="18" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B18" s="13">
         <v>21</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C18" s="21">
         <v>2023</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D18" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E18" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F18" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H18" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="18">
+      <c r="I18" s="13"/>
+      <c r="J18" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K16" s="25"/>
+      <c r="K18" s="25"/>
     </row>
-    <row r="17" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+    <row r="19" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="36">
+        <v>31</v>
+      </c>
+      <c r="C19" s="36">
+        <v>2023</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="39"/>
+      <c r="J19" s="40">
+        <f>IF(I19="Si",100%,0%)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="41"/>
+    </row>
+    <row r="20" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B20" s="13">
         <v>16</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C20" s="21">
         <v>2023</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D20" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E20" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F20" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G20" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H20" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="19">
+      <c r="I20" s="13"/>
+      <c r="J20" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K17" s="25"/>
+      <c r="K20" s="25"/>
     </row>
-    <row r="18" spans="1:11" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+    <row r="21" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B21" s="13">
         <v>16</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C21" s="21">
         <v>2023</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D21" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E21" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F21" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G21" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H21" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="19">
+      <c r="I21" s="13"/>
+      <c r="J21" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K18" s="25"/>
+      <c r="K21" s="25"/>
     </row>
-    <row r="19" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="27">
+    <row r="22" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="42"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="45">
         <f>(COUNTIF(Tabla13[EJECUTADO],"Si")/13)</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="33"/>
-      <c r="K19" s="30"/>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="J22" s="46"/>
+      <c r="K22" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3243,33 +3381,33 @@
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="D2:I2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J9:J11 J14:J18 J5:J7">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+  <conditionalFormatting sqref="J10:J13 J16:J21 J5:J7">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="J8:J9">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="J15">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="J14">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I65539:I65550 JD65539:JD65550 SZ65539:SZ65550 ACV65539:ACV65550 AMR65539:AMR65550 AWN65539:AWN65550 BGJ65539:BGJ65550 BQF65539:BQF65550 CAB65539:CAB65550 CJX65539:CJX65550 CTT65539:CTT65550 DDP65539:DDP65550 DNL65539:DNL65550 DXH65539:DXH65550 EHD65539:EHD65550 EQZ65539:EQZ65550 FAV65539:FAV65550 FKR65539:FKR65550 FUN65539:FUN65550 GEJ65539:GEJ65550 GOF65539:GOF65550 GYB65539:GYB65550 HHX65539:HHX65550 HRT65539:HRT65550 IBP65539:IBP65550 ILL65539:ILL65550 IVH65539:IVH65550 JFD65539:JFD65550 JOZ65539:JOZ65550 JYV65539:JYV65550 KIR65539:KIR65550 KSN65539:KSN65550 LCJ65539:LCJ65550 LMF65539:LMF65550 LWB65539:LWB65550 MFX65539:MFX65550 MPT65539:MPT65550 MZP65539:MZP65550 NJL65539:NJL65550 NTH65539:NTH65550 ODD65539:ODD65550 OMZ65539:OMZ65550 OWV65539:OWV65550 PGR65539:PGR65550 PQN65539:PQN65550 QAJ65539:QAJ65550 QKF65539:QKF65550 QUB65539:QUB65550 RDX65539:RDX65550 RNT65539:RNT65550 RXP65539:RXP65550 SHL65539:SHL65550 SRH65539:SRH65550 TBD65539:TBD65550 TKZ65539:TKZ65550 TUV65539:TUV65550 UER65539:UER65550 UON65539:UON65550 UYJ65539:UYJ65550 VIF65539:VIF65550 VSB65539:VSB65550 WBX65539:WBX65550 WLT65539:WLT65550 WVP65539:WVP65550 I131075:I131086 JD131075:JD131086 SZ131075:SZ131086 ACV131075:ACV131086 AMR131075:AMR131086 AWN131075:AWN131086 BGJ131075:BGJ131086 BQF131075:BQF131086 CAB131075:CAB131086 CJX131075:CJX131086 CTT131075:CTT131086 DDP131075:DDP131086 DNL131075:DNL131086 DXH131075:DXH131086 EHD131075:EHD131086 EQZ131075:EQZ131086 FAV131075:FAV131086 FKR131075:FKR131086 FUN131075:FUN131086 GEJ131075:GEJ131086 GOF131075:GOF131086 GYB131075:GYB131086 HHX131075:HHX131086 HRT131075:HRT131086 IBP131075:IBP131086 ILL131075:ILL131086 IVH131075:IVH131086 JFD131075:JFD131086 JOZ131075:JOZ131086 JYV131075:JYV131086 KIR131075:KIR131086 KSN131075:KSN131086 LCJ131075:LCJ131086 LMF131075:LMF131086 LWB131075:LWB131086 MFX131075:MFX131086 MPT131075:MPT131086 MZP131075:MZP131086 NJL131075:NJL131086 NTH131075:NTH131086 ODD131075:ODD131086 OMZ131075:OMZ131086 OWV131075:OWV131086 PGR131075:PGR131086 PQN131075:PQN131086 QAJ131075:QAJ131086 QKF131075:QKF131086 QUB131075:QUB131086 RDX131075:RDX131086 RNT131075:RNT131086 RXP131075:RXP131086 SHL131075:SHL131086 SRH131075:SRH131086 TBD131075:TBD131086 TKZ131075:TKZ131086 TUV131075:TUV131086 UER131075:UER131086 UON131075:UON131086 UYJ131075:UYJ131086 VIF131075:VIF131086 VSB131075:VSB131086 WBX131075:WBX131086 WLT131075:WLT131086 WVP131075:WVP131086 I196611:I196622 JD196611:JD196622 SZ196611:SZ196622 ACV196611:ACV196622 AMR196611:AMR196622 AWN196611:AWN196622 BGJ196611:BGJ196622 BQF196611:BQF196622 CAB196611:CAB196622 CJX196611:CJX196622 CTT196611:CTT196622 DDP196611:DDP196622 DNL196611:DNL196622 DXH196611:DXH196622 EHD196611:EHD196622 EQZ196611:EQZ196622 FAV196611:FAV196622 FKR196611:FKR196622 FUN196611:FUN196622 GEJ196611:GEJ196622 GOF196611:GOF196622 GYB196611:GYB196622 HHX196611:HHX196622 HRT196611:HRT196622 IBP196611:IBP196622 ILL196611:ILL196622 IVH196611:IVH196622 JFD196611:JFD196622 JOZ196611:JOZ196622 JYV196611:JYV196622 KIR196611:KIR196622 KSN196611:KSN196622 LCJ196611:LCJ196622 LMF196611:LMF196622 LWB196611:LWB196622 MFX196611:MFX196622 MPT196611:MPT196622 MZP196611:MZP196622 NJL196611:NJL196622 NTH196611:NTH196622 ODD196611:ODD196622 OMZ196611:OMZ196622 OWV196611:OWV196622 PGR196611:PGR196622 PQN196611:PQN196622 QAJ196611:QAJ196622 QKF196611:QKF196622 QUB196611:QUB196622 RDX196611:RDX196622 RNT196611:RNT196622 RXP196611:RXP196622 SHL196611:SHL196622 SRH196611:SRH196622 TBD196611:TBD196622 TKZ196611:TKZ196622 TUV196611:TUV196622 UER196611:UER196622 UON196611:UON196622 UYJ196611:UYJ196622 VIF196611:VIF196622 VSB196611:VSB196622 WBX196611:WBX196622 WLT196611:WLT196622 WVP196611:WVP196622 I262147:I262158 JD262147:JD262158 SZ262147:SZ262158 ACV262147:ACV262158 AMR262147:AMR262158 AWN262147:AWN262158 BGJ262147:BGJ262158 BQF262147:BQF262158 CAB262147:CAB262158 CJX262147:CJX262158 CTT262147:CTT262158 DDP262147:DDP262158 DNL262147:DNL262158 DXH262147:DXH262158 EHD262147:EHD262158 EQZ262147:EQZ262158 FAV262147:FAV262158 FKR262147:FKR262158 FUN262147:FUN262158 GEJ262147:GEJ262158 GOF262147:GOF262158 GYB262147:GYB262158 HHX262147:HHX262158 HRT262147:HRT262158 IBP262147:IBP262158 ILL262147:ILL262158 IVH262147:IVH262158 JFD262147:JFD262158 JOZ262147:JOZ262158 JYV262147:JYV262158 KIR262147:KIR262158 KSN262147:KSN262158 LCJ262147:LCJ262158 LMF262147:LMF262158 LWB262147:LWB262158 MFX262147:MFX262158 MPT262147:MPT262158 MZP262147:MZP262158 NJL262147:NJL262158 NTH262147:NTH262158 ODD262147:ODD262158 OMZ262147:OMZ262158 OWV262147:OWV262158 PGR262147:PGR262158 PQN262147:PQN262158 QAJ262147:QAJ262158 QKF262147:QKF262158 QUB262147:QUB262158 RDX262147:RDX262158 RNT262147:RNT262158 RXP262147:RXP262158 SHL262147:SHL262158 SRH262147:SRH262158 TBD262147:TBD262158 TKZ262147:TKZ262158 TUV262147:TUV262158 UER262147:UER262158 UON262147:UON262158 UYJ262147:UYJ262158 VIF262147:VIF262158 VSB262147:VSB262158 WBX262147:WBX262158 WLT262147:WLT262158 WVP262147:WVP262158 I327683:I327694 JD327683:JD327694 SZ327683:SZ327694 ACV327683:ACV327694 AMR327683:AMR327694 AWN327683:AWN327694 BGJ327683:BGJ327694 BQF327683:BQF327694 CAB327683:CAB327694 CJX327683:CJX327694 CTT327683:CTT327694 DDP327683:DDP327694 DNL327683:DNL327694 DXH327683:DXH327694 EHD327683:EHD327694 EQZ327683:EQZ327694 FAV327683:FAV327694 FKR327683:FKR327694 FUN327683:FUN327694 GEJ327683:GEJ327694 GOF327683:GOF327694 GYB327683:GYB327694 HHX327683:HHX327694 HRT327683:HRT327694 IBP327683:IBP327694 ILL327683:ILL327694 IVH327683:IVH327694 JFD327683:JFD327694 JOZ327683:JOZ327694 JYV327683:JYV327694 KIR327683:KIR327694 KSN327683:KSN327694 LCJ327683:LCJ327694 LMF327683:LMF327694 LWB327683:LWB327694 MFX327683:MFX327694 MPT327683:MPT327694 MZP327683:MZP327694 NJL327683:NJL327694 NTH327683:NTH327694 ODD327683:ODD327694 OMZ327683:OMZ327694 OWV327683:OWV327694 PGR327683:PGR327694 PQN327683:PQN327694 QAJ327683:QAJ327694 QKF327683:QKF327694 QUB327683:QUB327694 RDX327683:RDX327694 RNT327683:RNT327694 RXP327683:RXP327694 SHL327683:SHL327694 SRH327683:SRH327694 TBD327683:TBD327694 TKZ327683:TKZ327694 TUV327683:TUV327694 UER327683:UER327694 UON327683:UON327694 UYJ327683:UYJ327694 VIF327683:VIF327694 VSB327683:VSB327694 WBX327683:WBX327694 WLT327683:WLT327694 WVP327683:WVP327694 I393219:I393230 JD393219:JD393230 SZ393219:SZ393230 ACV393219:ACV393230 AMR393219:AMR393230 AWN393219:AWN393230 BGJ393219:BGJ393230 BQF393219:BQF393230 CAB393219:CAB393230 CJX393219:CJX393230 CTT393219:CTT393230 DDP393219:DDP393230 DNL393219:DNL393230 DXH393219:DXH393230 EHD393219:EHD393230 EQZ393219:EQZ393230 FAV393219:FAV393230 FKR393219:FKR393230 FUN393219:FUN393230 GEJ393219:GEJ393230 GOF393219:GOF393230 GYB393219:GYB393230 HHX393219:HHX393230 HRT393219:HRT393230 IBP393219:IBP393230 ILL393219:ILL393230 IVH393219:IVH393230 JFD393219:JFD393230 JOZ393219:JOZ393230 JYV393219:JYV393230 KIR393219:KIR393230 KSN393219:KSN393230 LCJ393219:LCJ393230 LMF393219:LMF393230 LWB393219:LWB393230 MFX393219:MFX393230 MPT393219:MPT393230 MZP393219:MZP393230 NJL393219:NJL393230 NTH393219:NTH393230 ODD393219:ODD393230 OMZ393219:OMZ393230 OWV393219:OWV393230 PGR393219:PGR393230 PQN393219:PQN393230 QAJ393219:QAJ393230 QKF393219:QKF393230 QUB393219:QUB393230 RDX393219:RDX393230 RNT393219:RNT393230 RXP393219:RXP393230 SHL393219:SHL393230 SRH393219:SRH393230 TBD393219:TBD393230 TKZ393219:TKZ393230 TUV393219:TUV393230 UER393219:UER393230 UON393219:UON393230 UYJ393219:UYJ393230 VIF393219:VIF393230 VSB393219:VSB393230 WBX393219:WBX393230 WLT393219:WLT393230 WVP393219:WVP393230 I458755:I458766 JD458755:JD458766 SZ458755:SZ458766 ACV458755:ACV458766 AMR458755:AMR458766 AWN458755:AWN458766 BGJ458755:BGJ458766 BQF458755:BQF458766 CAB458755:CAB458766 CJX458755:CJX458766 CTT458755:CTT458766 DDP458755:DDP458766 DNL458755:DNL458766 DXH458755:DXH458766 EHD458755:EHD458766 EQZ458755:EQZ458766 FAV458755:FAV458766 FKR458755:FKR458766 FUN458755:FUN458766 GEJ458755:GEJ458766 GOF458755:GOF458766 GYB458755:GYB458766 HHX458755:HHX458766 HRT458755:HRT458766 IBP458755:IBP458766 ILL458755:ILL458766 IVH458755:IVH458766 JFD458755:JFD458766 JOZ458755:JOZ458766 JYV458755:JYV458766 KIR458755:KIR458766 KSN458755:KSN458766 LCJ458755:LCJ458766 LMF458755:LMF458766 LWB458755:LWB458766 MFX458755:MFX458766 MPT458755:MPT458766 MZP458755:MZP458766 NJL458755:NJL458766 NTH458755:NTH458766 ODD458755:ODD458766 OMZ458755:OMZ458766 OWV458755:OWV458766 PGR458755:PGR458766 PQN458755:PQN458766 QAJ458755:QAJ458766 QKF458755:QKF458766 QUB458755:QUB458766 RDX458755:RDX458766 RNT458755:RNT458766 RXP458755:RXP458766 SHL458755:SHL458766 SRH458755:SRH458766 TBD458755:TBD458766 TKZ458755:TKZ458766 TUV458755:TUV458766 UER458755:UER458766 UON458755:UON458766 UYJ458755:UYJ458766 VIF458755:VIF458766 VSB458755:VSB458766 WBX458755:WBX458766 WLT458755:WLT458766 WVP458755:WVP458766 I524291:I524302 JD524291:JD524302 SZ524291:SZ524302 ACV524291:ACV524302 AMR524291:AMR524302 AWN524291:AWN524302 BGJ524291:BGJ524302 BQF524291:BQF524302 CAB524291:CAB524302 CJX524291:CJX524302 CTT524291:CTT524302 DDP524291:DDP524302 DNL524291:DNL524302 DXH524291:DXH524302 EHD524291:EHD524302 EQZ524291:EQZ524302 FAV524291:FAV524302 FKR524291:FKR524302 FUN524291:FUN524302 GEJ524291:GEJ524302 GOF524291:GOF524302 GYB524291:GYB524302 HHX524291:HHX524302 HRT524291:HRT524302 IBP524291:IBP524302 ILL524291:ILL524302 IVH524291:IVH524302 JFD524291:JFD524302 JOZ524291:JOZ524302 JYV524291:JYV524302 KIR524291:KIR524302 KSN524291:KSN524302 LCJ524291:LCJ524302 LMF524291:LMF524302 LWB524291:LWB524302 MFX524291:MFX524302 MPT524291:MPT524302 MZP524291:MZP524302 NJL524291:NJL524302 NTH524291:NTH524302 ODD524291:ODD524302 OMZ524291:OMZ524302 OWV524291:OWV524302 PGR524291:PGR524302 PQN524291:PQN524302 QAJ524291:QAJ524302 QKF524291:QKF524302 QUB524291:QUB524302 RDX524291:RDX524302 RNT524291:RNT524302 RXP524291:RXP524302 SHL524291:SHL524302 SRH524291:SRH524302 TBD524291:TBD524302 TKZ524291:TKZ524302 TUV524291:TUV524302 UER524291:UER524302 UON524291:UON524302 UYJ524291:UYJ524302 VIF524291:VIF524302 VSB524291:VSB524302 WBX524291:WBX524302 WLT524291:WLT524302 WVP524291:WVP524302 I589827:I589838 JD589827:JD589838 SZ589827:SZ589838 ACV589827:ACV589838 AMR589827:AMR589838 AWN589827:AWN589838 BGJ589827:BGJ589838 BQF589827:BQF589838 CAB589827:CAB589838 CJX589827:CJX589838 CTT589827:CTT589838 DDP589827:DDP589838 DNL589827:DNL589838 DXH589827:DXH589838 EHD589827:EHD589838 EQZ589827:EQZ589838 FAV589827:FAV589838 FKR589827:FKR589838 FUN589827:FUN589838 GEJ589827:GEJ589838 GOF589827:GOF589838 GYB589827:GYB589838 HHX589827:HHX589838 HRT589827:HRT589838 IBP589827:IBP589838 ILL589827:ILL589838 IVH589827:IVH589838 JFD589827:JFD589838 JOZ589827:JOZ589838 JYV589827:JYV589838 KIR589827:KIR589838 KSN589827:KSN589838 LCJ589827:LCJ589838 LMF589827:LMF589838 LWB589827:LWB589838 MFX589827:MFX589838 MPT589827:MPT589838 MZP589827:MZP589838 NJL589827:NJL589838 NTH589827:NTH589838 ODD589827:ODD589838 OMZ589827:OMZ589838 OWV589827:OWV589838 PGR589827:PGR589838 PQN589827:PQN589838 QAJ589827:QAJ589838 QKF589827:QKF589838 QUB589827:QUB589838 RDX589827:RDX589838 RNT589827:RNT589838 RXP589827:RXP589838 SHL589827:SHL589838 SRH589827:SRH589838 TBD589827:TBD589838 TKZ589827:TKZ589838 TUV589827:TUV589838 UER589827:UER589838 UON589827:UON589838 UYJ589827:UYJ589838 VIF589827:VIF589838 VSB589827:VSB589838 WBX589827:WBX589838 WLT589827:WLT589838 WVP589827:WVP589838 I655363:I655374 JD655363:JD655374 SZ655363:SZ655374 ACV655363:ACV655374 AMR655363:AMR655374 AWN655363:AWN655374 BGJ655363:BGJ655374 BQF655363:BQF655374 CAB655363:CAB655374 CJX655363:CJX655374 CTT655363:CTT655374 DDP655363:DDP655374 DNL655363:DNL655374 DXH655363:DXH655374 EHD655363:EHD655374 EQZ655363:EQZ655374 FAV655363:FAV655374 FKR655363:FKR655374 FUN655363:FUN655374 GEJ655363:GEJ655374 GOF655363:GOF655374 GYB655363:GYB655374 HHX655363:HHX655374 HRT655363:HRT655374 IBP655363:IBP655374 ILL655363:ILL655374 IVH655363:IVH655374 JFD655363:JFD655374 JOZ655363:JOZ655374 JYV655363:JYV655374 KIR655363:KIR655374 KSN655363:KSN655374 LCJ655363:LCJ655374 LMF655363:LMF655374 LWB655363:LWB655374 MFX655363:MFX655374 MPT655363:MPT655374 MZP655363:MZP655374 NJL655363:NJL655374 NTH655363:NTH655374 ODD655363:ODD655374 OMZ655363:OMZ655374 OWV655363:OWV655374 PGR655363:PGR655374 PQN655363:PQN655374 QAJ655363:QAJ655374 QKF655363:QKF655374 QUB655363:QUB655374 RDX655363:RDX655374 RNT655363:RNT655374 RXP655363:RXP655374 SHL655363:SHL655374 SRH655363:SRH655374 TBD655363:TBD655374 TKZ655363:TKZ655374 TUV655363:TUV655374 UER655363:UER655374 UON655363:UON655374 UYJ655363:UYJ655374 VIF655363:VIF655374 VSB655363:VSB655374 WBX655363:WBX655374 WLT655363:WLT655374 WVP655363:WVP655374 I720899:I720910 JD720899:JD720910 SZ720899:SZ720910 ACV720899:ACV720910 AMR720899:AMR720910 AWN720899:AWN720910 BGJ720899:BGJ720910 BQF720899:BQF720910 CAB720899:CAB720910 CJX720899:CJX720910 CTT720899:CTT720910 DDP720899:DDP720910 DNL720899:DNL720910 DXH720899:DXH720910 EHD720899:EHD720910 EQZ720899:EQZ720910 FAV720899:FAV720910 FKR720899:FKR720910 FUN720899:FUN720910 GEJ720899:GEJ720910 GOF720899:GOF720910 GYB720899:GYB720910 HHX720899:HHX720910 HRT720899:HRT720910 IBP720899:IBP720910 ILL720899:ILL720910 IVH720899:IVH720910 JFD720899:JFD720910 JOZ720899:JOZ720910 JYV720899:JYV720910 KIR720899:KIR720910 KSN720899:KSN720910 LCJ720899:LCJ720910 LMF720899:LMF720910 LWB720899:LWB720910 MFX720899:MFX720910 MPT720899:MPT720910 MZP720899:MZP720910 NJL720899:NJL720910 NTH720899:NTH720910 ODD720899:ODD720910 OMZ720899:OMZ720910 OWV720899:OWV720910 PGR720899:PGR720910 PQN720899:PQN720910 QAJ720899:QAJ720910 QKF720899:QKF720910 QUB720899:QUB720910 RDX720899:RDX720910 RNT720899:RNT720910 RXP720899:RXP720910 SHL720899:SHL720910 SRH720899:SRH720910 TBD720899:TBD720910 TKZ720899:TKZ720910 TUV720899:TUV720910 UER720899:UER720910 UON720899:UON720910 UYJ720899:UYJ720910 VIF720899:VIF720910 VSB720899:VSB720910 WBX720899:WBX720910 WLT720899:WLT720910 WVP720899:WVP720910 I786435:I786446 JD786435:JD786446 SZ786435:SZ786446 ACV786435:ACV786446 AMR786435:AMR786446 AWN786435:AWN786446 BGJ786435:BGJ786446 BQF786435:BQF786446 CAB786435:CAB786446 CJX786435:CJX786446 CTT786435:CTT786446 DDP786435:DDP786446 DNL786435:DNL786446 DXH786435:DXH786446 EHD786435:EHD786446 EQZ786435:EQZ786446 FAV786435:FAV786446 FKR786435:FKR786446 FUN786435:FUN786446 GEJ786435:GEJ786446 GOF786435:GOF786446 GYB786435:GYB786446 HHX786435:HHX786446 HRT786435:HRT786446 IBP786435:IBP786446 ILL786435:ILL786446 IVH786435:IVH786446 JFD786435:JFD786446 JOZ786435:JOZ786446 JYV786435:JYV786446 KIR786435:KIR786446 KSN786435:KSN786446 LCJ786435:LCJ786446 LMF786435:LMF786446 LWB786435:LWB786446 MFX786435:MFX786446 MPT786435:MPT786446 MZP786435:MZP786446 NJL786435:NJL786446 NTH786435:NTH786446 ODD786435:ODD786446 OMZ786435:OMZ786446 OWV786435:OWV786446 PGR786435:PGR786446 PQN786435:PQN786446 QAJ786435:QAJ786446 QKF786435:QKF786446 QUB786435:QUB786446 RDX786435:RDX786446 RNT786435:RNT786446 RXP786435:RXP786446 SHL786435:SHL786446 SRH786435:SRH786446 TBD786435:TBD786446 TKZ786435:TKZ786446 TUV786435:TUV786446 UER786435:UER786446 UON786435:UON786446 UYJ786435:UYJ786446 VIF786435:VIF786446 VSB786435:VSB786446 WBX786435:WBX786446 WLT786435:WLT786446 WVP786435:WVP786446 I851971:I851982 JD851971:JD851982 SZ851971:SZ851982 ACV851971:ACV851982 AMR851971:AMR851982 AWN851971:AWN851982 BGJ851971:BGJ851982 BQF851971:BQF851982 CAB851971:CAB851982 CJX851971:CJX851982 CTT851971:CTT851982 DDP851971:DDP851982 DNL851971:DNL851982 DXH851971:DXH851982 EHD851971:EHD851982 EQZ851971:EQZ851982 FAV851971:FAV851982 FKR851971:FKR851982 FUN851971:FUN851982 GEJ851971:GEJ851982 GOF851971:GOF851982 GYB851971:GYB851982 HHX851971:HHX851982 HRT851971:HRT851982 IBP851971:IBP851982 ILL851971:ILL851982 IVH851971:IVH851982 JFD851971:JFD851982 JOZ851971:JOZ851982 JYV851971:JYV851982 KIR851971:KIR851982 KSN851971:KSN851982 LCJ851971:LCJ851982 LMF851971:LMF851982 LWB851971:LWB851982 MFX851971:MFX851982 MPT851971:MPT851982 MZP851971:MZP851982 NJL851971:NJL851982 NTH851971:NTH851982 ODD851971:ODD851982 OMZ851971:OMZ851982 OWV851971:OWV851982 PGR851971:PGR851982 PQN851971:PQN851982 QAJ851971:QAJ851982 QKF851971:QKF851982 QUB851971:QUB851982 RDX851971:RDX851982 RNT851971:RNT851982 RXP851971:RXP851982 SHL851971:SHL851982 SRH851971:SRH851982 TBD851971:TBD851982 TKZ851971:TKZ851982 TUV851971:TUV851982 UER851971:UER851982 UON851971:UON851982 UYJ851971:UYJ851982 VIF851971:VIF851982 VSB851971:VSB851982 WBX851971:WBX851982 WLT851971:WLT851982 WVP851971:WVP851982 I917507:I917518 JD917507:JD917518 SZ917507:SZ917518 ACV917507:ACV917518 AMR917507:AMR917518 AWN917507:AWN917518 BGJ917507:BGJ917518 BQF917507:BQF917518 CAB917507:CAB917518 CJX917507:CJX917518 CTT917507:CTT917518 DDP917507:DDP917518 DNL917507:DNL917518 DXH917507:DXH917518 EHD917507:EHD917518 EQZ917507:EQZ917518 FAV917507:FAV917518 FKR917507:FKR917518 FUN917507:FUN917518 GEJ917507:GEJ917518 GOF917507:GOF917518 GYB917507:GYB917518 HHX917507:HHX917518 HRT917507:HRT917518 IBP917507:IBP917518 ILL917507:ILL917518 IVH917507:IVH917518 JFD917507:JFD917518 JOZ917507:JOZ917518 JYV917507:JYV917518 KIR917507:KIR917518 KSN917507:KSN917518 LCJ917507:LCJ917518 LMF917507:LMF917518 LWB917507:LWB917518 MFX917507:MFX917518 MPT917507:MPT917518 MZP917507:MZP917518 NJL917507:NJL917518 NTH917507:NTH917518 ODD917507:ODD917518 OMZ917507:OMZ917518 OWV917507:OWV917518 PGR917507:PGR917518 PQN917507:PQN917518 QAJ917507:QAJ917518 QKF917507:QKF917518 QUB917507:QUB917518 RDX917507:RDX917518 RNT917507:RNT917518 RXP917507:RXP917518 SHL917507:SHL917518 SRH917507:SRH917518 TBD917507:TBD917518 TKZ917507:TKZ917518 TUV917507:TUV917518 UER917507:UER917518 UON917507:UON917518 UYJ917507:UYJ917518 VIF917507:VIF917518 VSB917507:VSB917518 WBX917507:WBX917518 WLT917507:WLT917518 WVP917507:WVP917518 I983043:I983054 JD983043:JD983054 SZ983043:SZ983054 ACV983043:ACV983054 AMR983043:AMR983054 AWN983043:AWN983054 BGJ983043:BGJ983054 BQF983043:BQF983054 CAB983043:CAB983054 CJX983043:CJX983054 CTT983043:CTT983054 DDP983043:DDP983054 DNL983043:DNL983054 DXH983043:DXH983054 EHD983043:EHD983054 EQZ983043:EQZ983054 FAV983043:FAV983054 FKR983043:FKR983054 FUN983043:FUN983054 GEJ983043:GEJ983054 GOF983043:GOF983054 GYB983043:GYB983054 HHX983043:HHX983054 HRT983043:HRT983054 IBP983043:IBP983054 ILL983043:ILL983054 IVH983043:IVH983054 JFD983043:JFD983054 JOZ983043:JOZ983054 JYV983043:JYV983054 KIR983043:KIR983054 KSN983043:KSN983054 LCJ983043:LCJ983054 LMF983043:LMF983054 LWB983043:LWB983054 MFX983043:MFX983054 MPT983043:MPT983054 MZP983043:MZP983054 NJL983043:NJL983054 NTH983043:NTH983054 ODD983043:ODD983054 OMZ983043:OMZ983054 OWV983043:OWV983054 PGR983043:PGR983054 PQN983043:PQN983054 QAJ983043:QAJ983054 QKF983043:QKF983054 QUB983043:QUB983054 RDX983043:RDX983054 RNT983043:RNT983054 RXP983043:RXP983054 SHL983043:SHL983054 SRH983043:SRH983054 TBD983043:TBD983054 TKZ983043:TKZ983054 TUV983043:TUV983054 UER983043:UER983054 UON983043:UON983054 UYJ983043:UYJ983054 VIF983043:VIF983054 VSB983043:VSB983054 WBX983043:WBX983054 WLT983043:WLT983054 WVP983043:WVP983054 JD5:JD18 SZ5:SZ18 ACV5:ACV18 AMR5:AMR18 AWN5:AWN18 BGJ5:BGJ18 BQF5:BQF18 CAB5:CAB18 CJX5:CJX18 CTT5:CTT18 DDP5:DDP18 DNL5:DNL18 DXH5:DXH18 EHD5:EHD18 EQZ5:EQZ18 FAV5:FAV18 FKR5:FKR18 FUN5:FUN18 GEJ5:GEJ18 GOF5:GOF18 GYB5:GYB18 HHX5:HHX18 HRT5:HRT18 IBP5:IBP18 ILL5:ILL18 IVH5:IVH18 JFD5:JFD18 JOZ5:JOZ18 JYV5:JYV18 KIR5:KIR18 KSN5:KSN18 LCJ5:LCJ18 LMF5:LMF18 LWB5:LWB18 MFX5:MFX18 MPT5:MPT18 MZP5:MZP18 NJL5:NJL18 NTH5:NTH18 ODD5:ODD18 OMZ5:OMZ18 OWV5:OWV18 PGR5:PGR18 PQN5:PQN18 QAJ5:QAJ18 QKF5:QKF18 QUB5:QUB18 RDX5:RDX18 RNT5:RNT18 RXP5:RXP18 SHL5:SHL18 SRH5:SRH18 TBD5:TBD18 TKZ5:TKZ18 TUV5:TUV18 UER5:UER18 UON5:UON18 UYJ5:UYJ18 VIF5:VIF18 VSB5:VSB18 WBX5:WBX18 WLT5:WLT18 WVP5:WVP18 I5:I18" xr:uid="{24CC9B31-B7E8-46ED-AEFA-595F7384B9DE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I65542:I65553 JD65542:JD65553 SZ65542:SZ65553 ACV65542:ACV65553 AMR65542:AMR65553 AWN65542:AWN65553 BGJ65542:BGJ65553 BQF65542:BQF65553 CAB65542:CAB65553 CJX65542:CJX65553 CTT65542:CTT65553 DDP65542:DDP65553 DNL65542:DNL65553 DXH65542:DXH65553 EHD65542:EHD65553 EQZ65542:EQZ65553 FAV65542:FAV65553 FKR65542:FKR65553 FUN65542:FUN65553 GEJ65542:GEJ65553 GOF65542:GOF65553 GYB65542:GYB65553 HHX65542:HHX65553 HRT65542:HRT65553 IBP65542:IBP65553 ILL65542:ILL65553 IVH65542:IVH65553 JFD65542:JFD65553 JOZ65542:JOZ65553 JYV65542:JYV65553 KIR65542:KIR65553 KSN65542:KSN65553 LCJ65542:LCJ65553 LMF65542:LMF65553 LWB65542:LWB65553 MFX65542:MFX65553 MPT65542:MPT65553 MZP65542:MZP65553 NJL65542:NJL65553 NTH65542:NTH65553 ODD65542:ODD65553 OMZ65542:OMZ65553 OWV65542:OWV65553 PGR65542:PGR65553 PQN65542:PQN65553 QAJ65542:QAJ65553 QKF65542:QKF65553 QUB65542:QUB65553 RDX65542:RDX65553 RNT65542:RNT65553 RXP65542:RXP65553 SHL65542:SHL65553 SRH65542:SRH65553 TBD65542:TBD65553 TKZ65542:TKZ65553 TUV65542:TUV65553 UER65542:UER65553 UON65542:UON65553 UYJ65542:UYJ65553 VIF65542:VIF65553 VSB65542:VSB65553 WBX65542:WBX65553 WLT65542:WLT65553 WVP65542:WVP65553 I131078:I131089 JD131078:JD131089 SZ131078:SZ131089 ACV131078:ACV131089 AMR131078:AMR131089 AWN131078:AWN131089 BGJ131078:BGJ131089 BQF131078:BQF131089 CAB131078:CAB131089 CJX131078:CJX131089 CTT131078:CTT131089 DDP131078:DDP131089 DNL131078:DNL131089 DXH131078:DXH131089 EHD131078:EHD131089 EQZ131078:EQZ131089 FAV131078:FAV131089 FKR131078:FKR131089 FUN131078:FUN131089 GEJ131078:GEJ131089 GOF131078:GOF131089 GYB131078:GYB131089 HHX131078:HHX131089 HRT131078:HRT131089 IBP131078:IBP131089 ILL131078:ILL131089 IVH131078:IVH131089 JFD131078:JFD131089 JOZ131078:JOZ131089 JYV131078:JYV131089 KIR131078:KIR131089 KSN131078:KSN131089 LCJ131078:LCJ131089 LMF131078:LMF131089 LWB131078:LWB131089 MFX131078:MFX131089 MPT131078:MPT131089 MZP131078:MZP131089 NJL131078:NJL131089 NTH131078:NTH131089 ODD131078:ODD131089 OMZ131078:OMZ131089 OWV131078:OWV131089 PGR131078:PGR131089 PQN131078:PQN131089 QAJ131078:QAJ131089 QKF131078:QKF131089 QUB131078:QUB131089 RDX131078:RDX131089 RNT131078:RNT131089 RXP131078:RXP131089 SHL131078:SHL131089 SRH131078:SRH131089 TBD131078:TBD131089 TKZ131078:TKZ131089 TUV131078:TUV131089 UER131078:UER131089 UON131078:UON131089 UYJ131078:UYJ131089 VIF131078:VIF131089 VSB131078:VSB131089 WBX131078:WBX131089 WLT131078:WLT131089 WVP131078:WVP131089 I196614:I196625 JD196614:JD196625 SZ196614:SZ196625 ACV196614:ACV196625 AMR196614:AMR196625 AWN196614:AWN196625 BGJ196614:BGJ196625 BQF196614:BQF196625 CAB196614:CAB196625 CJX196614:CJX196625 CTT196614:CTT196625 DDP196614:DDP196625 DNL196614:DNL196625 DXH196614:DXH196625 EHD196614:EHD196625 EQZ196614:EQZ196625 FAV196614:FAV196625 FKR196614:FKR196625 FUN196614:FUN196625 GEJ196614:GEJ196625 GOF196614:GOF196625 GYB196614:GYB196625 HHX196614:HHX196625 HRT196614:HRT196625 IBP196614:IBP196625 ILL196614:ILL196625 IVH196614:IVH196625 JFD196614:JFD196625 JOZ196614:JOZ196625 JYV196614:JYV196625 KIR196614:KIR196625 KSN196614:KSN196625 LCJ196614:LCJ196625 LMF196614:LMF196625 LWB196614:LWB196625 MFX196614:MFX196625 MPT196614:MPT196625 MZP196614:MZP196625 NJL196614:NJL196625 NTH196614:NTH196625 ODD196614:ODD196625 OMZ196614:OMZ196625 OWV196614:OWV196625 PGR196614:PGR196625 PQN196614:PQN196625 QAJ196614:QAJ196625 QKF196614:QKF196625 QUB196614:QUB196625 RDX196614:RDX196625 RNT196614:RNT196625 RXP196614:RXP196625 SHL196614:SHL196625 SRH196614:SRH196625 TBD196614:TBD196625 TKZ196614:TKZ196625 TUV196614:TUV196625 UER196614:UER196625 UON196614:UON196625 UYJ196614:UYJ196625 VIF196614:VIF196625 VSB196614:VSB196625 WBX196614:WBX196625 WLT196614:WLT196625 WVP196614:WVP196625 I262150:I262161 JD262150:JD262161 SZ262150:SZ262161 ACV262150:ACV262161 AMR262150:AMR262161 AWN262150:AWN262161 BGJ262150:BGJ262161 BQF262150:BQF262161 CAB262150:CAB262161 CJX262150:CJX262161 CTT262150:CTT262161 DDP262150:DDP262161 DNL262150:DNL262161 DXH262150:DXH262161 EHD262150:EHD262161 EQZ262150:EQZ262161 FAV262150:FAV262161 FKR262150:FKR262161 FUN262150:FUN262161 GEJ262150:GEJ262161 GOF262150:GOF262161 GYB262150:GYB262161 HHX262150:HHX262161 HRT262150:HRT262161 IBP262150:IBP262161 ILL262150:ILL262161 IVH262150:IVH262161 JFD262150:JFD262161 JOZ262150:JOZ262161 JYV262150:JYV262161 KIR262150:KIR262161 KSN262150:KSN262161 LCJ262150:LCJ262161 LMF262150:LMF262161 LWB262150:LWB262161 MFX262150:MFX262161 MPT262150:MPT262161 MZP262150:MZP262161 NJL262150:NJL262161 NTH262150:NTH262161 ODD262150:ODD262161 OMZ262150:OMZ262161 OWV262150:OWV262161 PGR262150:PGR262161 PQN262150:PQN262161 QAJ262150:QAJ262161 QKF262150:QKF262161 QUB262150:QUB262161 RDX262150:RDX262161 RNT262150:RNT262161 RXP262150:RXP262161 SHL262150:SHL262161 SRH262150:SRH262161 TBD262150:TBD262161 TKZ262150:TKZ262161 TUV262150:TUV262161 UER262150:UER262161 UON262150:UON262161 UYJ262150:UYJ262161 VIF262150:VIF262161 VSB262150:VSB262161 WBX262150:WBX262161 WLT262150:WLT262161 WVP262150:WVP262161 I327686:I327697 JD327686:JD327697 SZ327686:SZ327697 ACV327686:ACV327697 AMR327686:AMR327697 AWN327686:AWN327697 BGJ327686:BGJ327697 BQF327686:BQF327697 CAB327686:CAB327697 CJX327686:CJX327697 CTT327686:CTT327697 DDP327686:DDP327697 DNL327686:DNL327697 DXH327686:DXH327697 EHD327686:EHD327697 EQZ327686:EQZ327697 FAV327686:FAV327697 FKR327686:FKR327697 FUN327686:FUN327697 GEJ327686:GEJ327697 GOF327686:GOF327697 GYB327686:GYB327697 HHX327686:HHX327697 HRT327686:HRT327697 IBP327686:IBP327697 ILL327686:ILL327697 IVH327686:IVH327697 JFD327686:JFD327697 JOZ327686:JOZ327697 JYV327686:JYV327697 KIR327686:KIR327697 KSN327686:KSN327697 LCJ327686:LCJ327697 LMF327686:LMF327697 LWB327686:LWB327697 MFX327686:MFX327697 MPT327686:MPT327697 MZP327686:MZP327697 NJL327686:NJL327697 NTH327686:NTH327697 ODD327686:ODD327697 OMZ327686:OMZ327697 OWV327686:OWV327697 PGR327686:PGR327697 PQN327686:PQN327697 QAJ327686:QAJ327697 QKF327686:QKF327697 QUB327686:QUB327697 RDX327686:RDX327697 RNT327686:RNT327697 RXP327686:RXP327697 SHL327686:SHL327697 SRH327686:SRH327697 TBD327686:TBD327697 TKZ327686:TKZ327697 TUV327686:TUV327697 UER327686:UER327697 UON327686:UON327697 UYJ327686:UYJ327697 VIF327686:VIF327697 VSB327686:VSB327697 WBX327686:WBX327697 WLT327686:WLT327697 WVP327686:WVP327697 I393222:I393233 JD393222:JD393233 SZ393222:SZ393233 ACV393222:ACV393233 AMR393222:AMR393233 AWN393222:AWN393233 BGJ393222:BGJ393233 BQF393222:BQF393233 CAB393222:CAB393233 CJX393222:CJX393233 CTT393222:CTT393233 DDP393222:DDP393233 DNL393222:DNL393233 DXH393222:DXH393233 EHD393222:EHD393233 EQZ393222:EQZ393233 FAV393222:FAV393233 FKR393222:FKR393233 FUN393222:FUN393233 GEJ393222:GEJ393233 GOF393222:GOF393233 GYB393222:GYB393233 HHX393222:HHX393233 HRT393222:HRT393233 IBP393222:IBP393233 ILL393222:ILL393233 IVH393222:IVH393233 JFD393222:JFD393233 JOZ393222:JOZ393233 JYV393222:JYV393233 KIR393222:KIR393233 KSN393222:KSN393233 LCJ393222:LCJ393233 LMF393222:LMF393233 LWB393222:LWB393233 MFX393222:MFX393233 MPT393222:MPT393233 MZP393222:MZP393233 NJL393222:NJL393233 NTH393222:NTH393233 ODD393222:ODD393233 OMZ393222:OMZ393233 OWV393222:OWV393233 PGR393222:PGR393233 PQN393222:PQN393233 QAJ393222:QAJ393233 QKF393222:QKF393233 QUB393222:QUB393233 RDX393222:RDX393233 RNT393222:RNT393233 RXP393222:RXP393233 SHL393222:SHL393233 SRH393222:SRH393233 TBD393222:TBD393233 TKZ393222:TKZ393233 TUV393222:TUV393233 UER393222:UER393233 UON393222:UON393233 UYJ393222:UYJ393233 VIF393222:VIF393233 VSB393222:VSB393233 WBX393222:WBX393233 WLT393222:WLT393233 WVP393222:WVP393233 I458758:I458769 JD458758:JD458769 SZ458758:SZ458769 ACV458758:ACV458769 AMR458758:AMR458769 AWN458758:AWN458769 BGJ458758:BGJ458769 BQF458758:BQF458769 CAB458758:CAB458769 CJX458758:CJX458769 CTT458758:CTT458769 DDP458758:DDP458769 DNL458758:DNL458769 DXH458758:DXH458769 EHD458758:EHD458769 EQZ458758:EQZ458769 FAV458758:FAV458769 FKR458758:FKR458769 FUN458758:FUN458769 GEJ458758:GEJ458769 GOF458758:GOF458769 GYB458758:GYB458769 HHX458758:HHX458769 HRT458758:HRT458769 IBP458758:IBP458769 ILL458758:ILL458769 IVH458758:IVH458769 JFD458758:JFD458769 JOZ458758:JOZ458769 JYV458758:JYV458769 KIR458758:KIR458769 KSN458758:KSN458769 LCJ458758:LCJ458769 LMF458758:LMF458769 LWB458758:LWB458769 MFX458758:MFX458769 MPT458758:MPT458769 MZP458758:MZP458769 NJL458758:NJL458769 NTH458758:NTH458769 ODD458758:ODD458769 OMZ458758:OMZ458769 OWV458758:OWV458769 PGR458758:PGR458769 PQN458758:PQN458769 QAJ458758:QAJ458769 QKF458758:QKF458769 QUB458758:QUB458769 RDX458758:RDX458769 RNT458758:RNT458769 RXP458758:RXP458769 SHL458758:SHL458769 SRH458758:SRH458769 TBD458758:TBD458769 TKZ458758:TKZ458769 TUV458758:TUV458769 UER458758:UER458769 UON458758:UON458769 UYJ458758:UYJ458769 VIF458758:VIF458769 VSB458758:VSB458769 WBX458758:WBX458769 WLT458758:WLT458769 WVP458758:WVP458769 I524294:I524305 JD524294:JD524305 SZ524294:SZ524305 ACV524294:ACV524305 AMR524294:AMR524305 AWN524294:AWN524305 BGJ524294:BGJ524305 BQF524294:BQF524305 CAB524294:CAB524305 CJX524294:CJX524305 CTT524294:CTT524305 DDP524294:DDP524305 DNL524294:DNL524305 DXH524294:DXH524305 EHD524294:EHD524305 EQZ524294:EQZ524305 FAV524294:FAV524305 FKR524294:FKR524305 FUN524294:FUN524305 GEJ524294:GEJ524305 GOF524294:GOF524305 GYB524294:GYB524305 HHX524294:HHX524305 HRT524294:HRT524305 IBP524294:IBP524305 ILL524294:ILL524305 IVH524294:IVH524305 JFD524294:JFD524305 JOZ524294:JOZ524305 JYV524294:JYV524305 KIR524294:KIR524305 KSN524294:KSN524305 LCJ524294:LCJ524305 LMF524294:LMF524305 LWB524294:LWB524305 MFX524294:MFX524305 MPT524294:MPT524305 MZP524294:MZP524305 NJL524294:NJL524305 NTH524294:NTH524305 ODD524294:ODD524305 OMZ524294:OMZ524305 OWV524294:OWV524305 PGR524294:PGR524305 PQN524294:PQN524305 QAJ524294:QAJ524305 QKF524294:QKF524305 QUB524294:QUB524305 RDX524294:RDX524305 RNT524294:RNT524305 RXP524294:RXP524305 SHL524294:SHL524305 SRH524294:SRH524305 TBD524294:TBD524305 TKZ524294:TKZ524305 TUV524294:TUV524305 UER524294:UER524305 UON524294:UON524305 UYJ524294:UYJ524305 VIF524294:VIF524305 VSB524294:VSB524305 WBX524294:WBX524305 WLT524294:WLT524305 WVP524294:WVP524305 I589830:I589841 JD589830:JD589841 SZ589830:SZ589841 ACV589830:ACV589841 AMR589830:AMR589841 AWN589830:AWN589841 BGJ589830:BGJ589841 BQF589830:BQF589841 CAB589830:CAB589841 CJX589830:CJX589841 CTT589830:CTT589841 DDP589830:DDP589841 DNL589830:DNL589841 DXH589830:DXH589841 EHD589830:EHD589841 EQZ589830:EQZ589841 FAV589830:FAV589841 FKR589830:FKR589841 FUN589830:FUN589841 GEJ589830:GEJ589841 GOF589830:GOF589841 GYB589830:GYB589841 HHX589830:HHX589841 HRT589830:HRT589841 IBP589830:IBP589841 ILL589830:ILL589841 IVH589830:IVH589841 JFD589830:JFD589841 JOZ589830:JOZ589841 JYV589830:JYV589841 KIR589830:KIR589841 KSN589830:KSN589841 LCJ589830:LCJ589841 LMF589830:LMF589841 LWB589830:LWB589841 MFX589830:MFX589841 MPT589830:MPT589841 MZP589830:MZP589841 NJL589830:NJL589841 NTH589830:NTH589841 ODD589830:ODD589841 OMZ589830:OMZ589841 OWV589830:OWV589841 PGR589830:PGR589841 PQN589830:PQN589841 QAJ589830:QAJ589841 QKF589830:QKF589841 QUB589830:QUB589841 RDX589830:RDX589841 RNT589830:RNT589841 RXP589830:RXP589841 SHL589830:SHL589841 SRH589830:SRH589841 TBD589830:TBD589841 TKZ589830:TKZ589841 TUV589830:TUV589841 UER589830:UER589841 UON589830:UON589841 UYJ589830:UYJ589841 VIF589830:VIF589841 VSB589830:VSB589841 WBX589830:WBX589841 WLT589830:WLT589841 WVP589830:WVP589841 I655366:I655377 JD655366:JD655377 SZ655366:SZ655377 ACV655366:ACV655377 AMR655366:AMR655377 AWN655366:AWN655377 BGJ655366:BGJ655377 BQF655366:BQF655377 CAB655366:CAB655377 CJX655366:CJX655377 CTT655366:CTT655377 DDP655366:DDP655377 DNL655366:DNL655377 DXH655366:DXH655377 EHD655366:EHD655377 EQZ655366:EQZ655377 FAV655366:FAV655377 FKR655366:FKR655377 FUN655366:FUN655377 GEJ655366:GEJ655377 GOF655366:GOF655377 GYB655366:GYB655377 HHX655366:HHX655377 HRT655366:HRT655377 IBP655366:IBP655377 ILL655366:ILL655377 IVH655366:IVH655377 JFD655366:JFD655377 JOZ655366:JOZ655377 JYV655366:JYV655377 KIR655366:KIR655377 KSN655366:KSN655377 LCJ655366:LCJ655377 LMF655366:LMF655377 LWB655366:LWB655377 MFX655366:MFX655377 MPT655366:MPT655377 MZP655366:MZP655377 NJL655366:NJL655377 NTH655366:NTH655377 ODD655366:ODD655377 OMZ655366:OMZ655377 OWV655366:OWV655377 PGR655366:PGR655377 PQN655366:PQN655377 QAJ655366:QAJ655377 QKF655366:QKF655377 QUB655366:QUB655377 RDX655366:RDX655377 RNT655366:RNT655377 RXP655366:RXP655377 SHL655366:SHL655377 SRH655366:SRH655377 TBD655366:TBD655377 TKZ655366:TKZ655377 TUV655366:TUV655377 UER655366:UER655377 UON655366:UON655377 UYJ655366:UYJ655377 VIF655366:VIF655377 VSB655366:VSB655377 WBX655366:WBX655377 WLT655366:WLT655377 WVP655366:WVP655377 I720902:I720913 JD720902:JD720913 SZ720902:SZ720913 ACV720902:ACV720913 AMR720902:AMR720913 AWN720902:AWN720913 BGJ720902:BGJ720913 BQF720902:BQF720913 CAB720902:CAB720913 CJX720902:CJX720913 CTT720902:CTT720913 DDP720902:DDP720913 DNL720902:DNL720913 DXH720902:DXH720913 EHD720902:EHD720913 EQZ720902:EQZ720913 FAV720902:FAV720913 FKR720902:FKR720913 FUN720902:FUN720913 GEJ720902:GEJ720913 GOF720902:GOF720913 GYB720902:GYB720913 HHX720902:HHX720913 HRT720902:HRT720913 IBP720902:IBP720913 ILL720902:ILL720913 IVH720902:IVH720913 JFD720902:JFD720913 JOZ720902:JOZ720913 JYV720902:JYV720913 KIR720902:KIR720913 KSN720902:KSN720913 LCJ720902:LCJ720913 LMF720902:LMF720913 LWB720902:LWB720913 MFX720902:MFX720913 MPT720902:MPT720913 MZP720902:MZP720913 NJL720902:NJL720913 NTH720902:NTH720913 ODD720902:ODD720913 OMZ720902:OMZ720913 OWV720902:OWV720913 PGR720902:PGR720913 PQN720902:PQN720913 QAJ720902:QAJ720913 QKF720902:QKF720913 QUB720902:QUB720913 RDX720902:RDX720913 RNT720902:RNT720913 RXP720902:RXP720913 SHL720902:SHL720913 SRH720902:SRH720913 TBD720902:TBD720913 TKZ720902:TKZ720913 TUV720902:TUV720913 UER720902:UER720913 UON720902:UON720913 UYJ720902:UYJ720913 VIF720902:VIF720913 VSB720902:VSB720913 WBX720902:WBX720913 WLT720902:WLT720913 WVP720902:WVP720913 I786438:I786449 JD786438:JD786449 SZ786438:SZ786449 ACV786438:ACV786449 AMR786438:AMR786449 AWN786438:AWN786449 BGJ786438:BGJ786449 BQF786438:BQF786449 CAB786438:CAB786449 CJX786438:CJX786449 CTT786438:CTT786449 DDP786438:DDP786449 DNL786438:DNL786449 DXH786438:DXH786449 EHD786438:EHD786449 EQZ786438:EQZ786449 FAV786438:FAV786449 FKR786438:FKR786449 FUN786438:FUN786449 GEJ786438:GEJ786449 GOF786438:GOF786449 GYB786438:GYB786449 HHX786438:HHX786449 HRT786438:HRT786449 IBP786438:IBP786449 ILL786438:ILL786449 IVH786438:IVH786449 JFD786438:JFD786449 JOZ786438:JOZ786449 JYV786438:JYV786449 KIR786438:KIR786449 KSN786438:KSN786449 LCJ786438:LCJ786449 LMF786438:LMF786449 LWB786438:LWB786449 MFX786438:MFX786449 MPT786438:MPT786449 MZP786438:MZP786449 NJL786438:NJL786449 NTH786438:NTH786449 ODD786438:ODD786449 OMZ786438:OMZ786449 OWV786438:OWV786449 PGR786438:PGR786449 PQN786438:PQN786449 QAJ786438:QAJ786449 QKF786438:QKF786449 QUB786438:QUB786449 RDX786438:RDX786449 RNT786438:RNT786449 RXP786438:RXP786449 SHL786438:SHL786449 SRH786438:SRH786449 TBD786438:TBD786449 TKZ786438:TKZ786449 TUV786438:TUV786449 UER786438:UER786449 UON786438:UON786449 UYJ786438:UYJ786449 VIF786438:VIF786449 VSB786438:VSB786449 WBX786438:WBX786449 WLT786438:WLT786449 WVP786438:WVP786449 I851974:I851985 JD851974:JD851985 SZ851974:SZ851985 ACV851974:ACV851985 AMR851974:AMR851985 AWN851974:AWN851985 BGJ851974:BGJ851985 BQF851974:BQF851985 CAB851974:CAB851985 CJX851974:CJX851985 CTT851974:CTT851985 DDP851974:DDP851985 DNL851974:DNL851985 DXH851974:DXH851985 EHD851974:EHD851985 EQZ851974:EQZ851985 FAV851974:FAV851985 FKR851974:FKR851985 FUN851974:FUN851985 GEJ851974:GEJ851985 GOF851974:GOF851985 GYB851974:GYB851985 HHX851974:HHX851985 HRT851974:HRT851985 IBP851974:IBP851985 ILL851974:ILL851985 IVH851974:IVH851985 JFD851974:JFD851985 JOZ851974:JOZ851985 JYV851974:JYV851985 KIR851974:KIR851985 KSN851974:KSN851985 LCJ851974:LCJ851985 LMF851974:LMF851985 LWB851974:LWB851985 MFX851974:MFX851985 MPT851974:MPT851985 MZP851974:MZP851985 NJL851974:NJL851985 NTH851974:NTH851985 ODD851974:ODD851985 OMZ851974:OMZ851985 OWV851974:OWV851985 PGR851974:PGR851985 PQN851974:PQN851985 QAJ851974:QAJ851985 QKF851974:QKF851985 QUB851974:QUB851985 RDX851974:RDX851985 RNT851974:RNT851985 RXP851974:RXP851985 SHL851974:SHL851985 SRH851974:SRH851985 TBD851974:TBD851985 TKZ851974:TKZ851985 TUV851974:TUV851985 UER851974:UER851985 UON851974:UON851985 UYJ851974:UYJ851985 VIF851974:VIF851985 VSB851974:VSB851985 WBX851974:WBX851985 WLT851974:WLT851985 WVP851974:WVP851985 I917510:I917521 JD917510:JD917521 SZ917510:SZ917521 ACV917510:ACV917521 AMR917510:AMR917521 AWN917510:AWN917521 BGJ917510:BGJ917521 BQF917510:BQF917521 CAB917510:CAB917521 CJX917510:CJX917521 CTT917510:CTT917521 DDP917510:DDP917521 DNL917510:DNL917521 DXH917510:DXH917521 EHD917510:EHD917521 EQZ917510:EQZ917521 FAV917510:FAV917521 FKR917510:FKR917521 FUN917510:FUN917521 GEJ917510:GEJ917521 GOF917510:GOF917521 GYB917510:GYB917521 HHX917510:HHX917521 HRT917510:HRT917521 IBP917510:IBP917521 ILL917510:ILL917521 IVH917510:IVH917521 JFD917510:JFD917521 JOZ917510:JOZ917521 JYV917510:JYV917521 KIR917510:KIR917521 KSN917510:KSN917521 LCJ917510:LCJ917521 LMF917510:LMF917521 LWB917510:LWB917521 MFX917510:MFX917521 MPT917510:MPT917521 MZP917510:MZP917521 NJL917510:NJL917521 NTH917510:NTH917521 ODD917510:ODD917521 OMZ917510:OMZ917521 OWV917510:OWV917521 PGR917510:PGR917521 PQN917510:PQN917521 QAJ917510:QAJ917521 QKF917510:QKF917521 QUB917510:QUB917521 RDX917510:RDX917521 RNT917510:RNT917521 RXP917510:RXP917521 SHL917510:SHL917521 SRH917510:SRH917521 TBD917510:TBD917521 TKZ917510:TKZ917521 TUV917510:TUV917521 UER917510:UER917521 UON917510:UON917521 UYJ917510:UYJ917521 VIF917510:VIF917521 VSB917510:VSB917521 WBX917510:WBX917521 WLT917510:WLT917521 WVP917510:WVP917521 I983046:I983057 JD983046:JD983057 SZ983046:SZ983057 ACV983046:ACV983057 AMR983046:AMR983057 AWN983046:AWN983057 BGJ983046:BGJ983057 BQF983046:BQF983057 CAB983046:CAB983057 CJX983046:CJX983057 CTT983046:CTT983057 DDP983046:DDP983057 DNL983046:DNL983057 DXH983046:DXH983057 EHD983046:EHD983057 EQZ983046:EQZ983057 FAV983046:FAV983057 FKR983046:FKR983057 FUN983046:FUN983057 GEJ983046:GEJ983057 GOF983046:GOF983057 GYB983046:GYB983057 HHX983046:HHX983057 HRT983046:HRT983057 IBP983046:IBP983057 ILL983046:ILL983057 IVH983046:IVH983057 JFD983046:JFD983057 JOZ983046:JOZ983057 JYV983046:JYV983057 KIR983046:KIR983057 KSN983046:KSN983057 LCJ983046:LCJ983057 LMF983046:LMF983057 LWB983046:LWB983057 MFX983046:MFX983057 MPT983046:MPT983057 MZP983046:MZP983057 NJL983046:NJL983057 NTH983046:NTH983057 ODD983046:ODD983057 OMZ983046:OMZ983057 OWV983046:OWV983057 PGR983046:PGR983057 PQN983046:PQN983057 QAJ983046:QAJ983057 QKF983046:QKF983057 QUB983046:QUB983057 RDX983046:RDX983057 RNT983046:RNT983057 RXP983046:RXP983057 SHL983046:SHL983057 SRH983046:SRH983057 TBD983046:TBD983057 TKZ983046:TKZ983057 TUV983046:TUV983057 UER983046:UER983057 UON983046:UON983057 UYJ983046:UYJ983057 VIF983046:VIF983057 VSB983046:VSB983057 WBX983046:WBX983057 WLT983046:WLT983057 WVP983046:WVP983057 JD5:JD21 SZ5:SZ21 ACV5:ACV21 AMR5:AMR21 AWN5:AWN21 BGJ5:BGJ21 BQF5:BQF21 CAB5:CAB21 CJX5:CJX21 CTT5:CTT21 DDP5:DDP21 DNL5:DNL21 DXH5:DXH21 EHD5:EHD21 EQZ5:EQZ21 FAV5:FAV21 FKR5:FKR21 FUN5:FUN21 GEJ5:GEJ21 GOF5:GOF21 GYB5:GYB21 HHX5:HHX21 HRT5:HRT21 IBP5:IBP21 ILL5:ILL21 IVH5:IVH21 JFD5:JFD21 JOZ5:JOZ21 JYV5:JYV21 KIR5:KIR21 KSN5:KSN21 LCJ5:LCJ21 LMF5:LMF21 LWB5:LWB21 MFX5:MFX21 MPT5:MPT21 MZP5:MZP21 NJL5:NJL21 NTH5:NTH21 ODD5:ODD21 OMZ5:OMZ21 OWV5:OWV21 PGR5:PGR21 PQN5:PQN21 QAJ5:QAJ21 QKF5:QKF21 QUB5:QUB21 RDX5:RDX21 RNT5:RNT21 RXP5:RXP21 SHL5:SHL21 SRH5:SRH21 TBD5:TBD21 TKZ5:TKZ21 TUV5:TUV21 UER5:UER21 UON5:UON21 UYJ5:UYJ21 VIF5:VIF21 VSB5:VSB21 WBX5:WBX21 WLT5:WLT21 WVP5:WVP21 I5:I21">
       <formula1>"Si, No"</formula1>
     </dataValidation>
   </dataValidations>
